--- a/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
+++ b/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C75E00D0-538B-4555-9964-BED178EF3E0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{907A436A-8FDE-4A28-878D-DF0089ABFAB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>用例描述</t>
   </si>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1217,9 +1217,7 @@
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
         <v>15</v>
@@ -1247,9 +1245,7 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>15</v>
@@ -1307,9 +1303,7 @@
       <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>15</v>

--- a/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
+++ b/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{907A436A-8FDE-4A28-878D-DF0089ABFAB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52FD62C5-4C42-401D-9CCE-9F55E8F8E90F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>用例描述</t>
   </si>
@@ -213,10 +213,6 @@
     <t>原卡券“未使用”状态变为“已赠送”
 并记录领取的对象
 领取的对象将新增一条新卡券记录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议领取的卡券备注上谁赠送的卡券，不然自己所获的卡券不明不白的</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1024,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1213,9 @@
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
         <v>15</v>
@@ -1245,7 +1243,9 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>15</v>
@@ -1303,7 +1303,9 @@
       <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -1364,9 +1366,7 @@
       <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
         <v>15</v>
       </c>

--- a/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
+++ b/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52FD62C5-4C42-401D-9CCE-9F55E8F8E90F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4394CCF8-D205-49AE-B517-A363CA7B719E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,6 +279,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1021,7 +1022,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
+++ b/doc/测试文档/动漫节购买卡券（带新注册）测试 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4394CCF8-D205-49AE-B517-A363CA7B719E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEEB1743-B029-4674-98DA-6EC9546171C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,12 +166,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>打开useCoupon页面
-输入手机号码和卡券后6位数获取卡券
-点击“立即使用”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>卡券
 转赠</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -213,6 +207,12 @@
     <t>原卡券“未使用”状态变为“已赠送”
 并记录领取的对象
 领取的对象将新增一条新卡券记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营管理-&gt;卡券管理-&gt;凭号使用
+输入手机号码和卡券后6位数获取卡券
+点击“立即使用”</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1299,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>34</v>
@@ -1323,16 +1323,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>19</v>
@@ -1353,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>19</v>
